--- a/biology/Médecine/Gustav_Jäger/Gustav_Jäger.xlsx
+++ b/biology/Médecine/Gustav_Jäger/Gustav_Jäger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gustav_J%C3%A4ger</t>
+          <t>Gustav_Jäger</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gustav Jäger ou Jaeger, né le 23 juin 1832 à Burg (Royaume de Wurtemberg) et mort le 13 mai 1917 est un médecin, naturaliste et hygiéniste wurtembergeois.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gustav_J%C3%A4ger</t>
+          <t>Gustav_Jäger</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ayant achevé ses études de médecine à l'université de Tübingen, il enseigna la zoologie à Vienne. En 1868, il fut nommé professeur de zoologie l'Académie de Hohenheim et devint par la suite professeur de zoologie et d'anthropologie à l'École polytechnique de Stuttgart et professeur de physiologie à l'École vétérinaire de cette ville. En 1884, il abandonna l'enseignement pour s'engager dans une carrière de médecin.
 Il écrivit des ouvrages variés dans le domaine de la biologie, dont 
@@ -522,7 +536,7 @@
 conserve ses propriétés spécifiques de génération en génération, préservant, lors de la duplication, les éléments ontogénétiques permettant la construction complète de nouveaux êtres ainsi que les éléments phylogénétiques permettant à ces nouveaux être de se reproduire eux-mêmes à l'âge de la maturité.
 Il donna son nom à un type de vêtements qu'il avait imaginé et nommé Die Normalkleidung als Gesundheitsschutz, c'est-à-dire l'habillement normal de protection sanitaire (1880), pour lequel il préconisa le port de tissus bruts, tels que la laine, proches du corps, et ne comportant aucune fibre végétale.
 Il fit également d'importants travaux en entomologie, se spécialisant dans les coléoptères, en particulier les Buprestidae and les Scarabaeidae. Il écrivit avec Carl Gustav Calwer (de) une Histoire naturelle des insectes d'Europe, ouvrage très populaire réédité jusqu'en 1916.
-Sa collection de coléoptères est conservée au Museum d'Histoire Naturelle de Stuttgart[1]
+Sa collection de coléoptères est conservée au Museum d'Histoire Naturelle de Stuttgart
 </t>
         </is>
       </c>
